--- a/hardware/bom_gerber_pick/PickAndPlace_整体_2023-08-22.xlsx
+++ b/hardware/bom_gerber_pick/PickAndPlace_整体_2023-08-22.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowHeight="17820"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="PickAndPlace_magiclick_整体_2023-" state="visible" r:id="rId4"/>
+    <sheet name="PickAndPlace_magiclick_整体_2023-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -1057,25 +1060,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1083,24 +1429,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1422,22 +2054,24 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +2115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1525,7 +2159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1569,7 +2203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1613,7 +2247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1657,7 +2291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1701,7 +2335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1745,7 +2379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1789,7 +2423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1833,7 +2467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1877,7 +2511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -1921,7 +2555,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -1953,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1965,7 +2599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>82</v>
       </c>
@@ -2009,7 +2643,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2053,7 +2687,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2097,7 +2731,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>98</v>
       </c>
@@ -2141,7 +2775,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -2185,7 +2819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -2229,7 +2863,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>110</v>
       </c>
@@ -2273,7 +2907,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -2317,7 +2951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
         <v>116</v>
       </c>
@@ -2361,7 +2995,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -2405,7 +3039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -2449,7 +3083,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -2493,7 +3127,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
         <v>140</v>
       </c>
@@ -2537,7 +3171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -2581,7 +3215,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -2625,7 +3259,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -2669,7 +3303,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
         <v>162</v>
       </c>
@@ -2713,7 +3347,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>166</v>
       </c>
@@ -2757,7 +3391,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -2801,7 +3435,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
         <v>173</v>
       </c>
@@ -2845,7 +3479,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -2889,7 +3523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
         <v>181</v>
       </c>
@@ -2933,7 +3567,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>188</v>
       </c>
@@ -2977,7 +3611,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>192</v>
       </c>
@@ -3021,7 +3655,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
         <v>196</v>
       </c>
@@ -3065,7 +3699,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
         <v>201</v>
       </c>
@@ -3109,7 +3743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
         <v>205</v>
       </c>
@@ -3153,7 +3787,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -3197,7 +3831,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
         <v>212</v>
       </c>
@@ -3241,7 +3875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
         <v>215</v>
       </c>
@@ -3285,7 +3919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
         <v>216</v>
       </c>
@@ -3329,7 +3963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
         <v>219</v>
       </c>
@@ -3373,7 +4007,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
         <v>222</v>
       </c>
@@ -3417,7 +4051,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
         <v>225</v>
       </c>
@@ -3461,7 +4095,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
         <v>232</v>
       </c>
@@ -3505,7 +4139,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
         <v>236</v>
       </c>
@@ -3549,7 +4183,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>244</v>
       </c>
@@ -3593,7 +4227,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>250</v>
       </c>
@@ -3637,7 +4271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
         <v>254</v>
       </c>
@@ -3681,7 +4315,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>257</v>
       </c>
@@ -3725,7 +4359,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>261</v>
       </c>
@@ -3769,7 +4403,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>265</v>
       </c>
@@ -3813,7 +4447,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>268</v>
       </c>
@@ -3857,7 +4491,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>269</v>
       </c>
@@ -3901,7 +4535,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>270</v>
       </c>
@@ -3945,7 +4579,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>276</v>
       </c>
@@ -3989,7 +4623,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>280</v>
       </c>
@@ -4033,7 +4667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>284</v>
       </c>
@@ -4077,7 +4711,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>288</v>
       </c>
@@ -4121,7 +4755,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>295</v>
       </c>
@@ -4165,7 +4799,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>301</v>
       </c>
@@ -4209,7 +4843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>304</v>
       </c>
@@ -4253,7 +4887,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
         <v>310</v>
       </c>
@@ -4297,7 +4931,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
         <v>316</v>
       </c>
@@ -4341,7 +4975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
         <v>320</v>
       </c>
@@ -4385,7 +5019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
         <v>323</v>
       </c>
@@ -4429,7 +5063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
         <v>327</v>
       </c>
@@ -4473,7 +5107,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
         <v>331</v>
       </c>
@@ -4517,7 +5151,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
         <v>336</v>
       </c>
@@ -4561,7 +5195,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
         <v>343</v>
       </c>
@@ -4608,6 +5242,7 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>